--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Habiba essam kamel</x:t>
   </x:si>
   <x:si>
-    <x:t>1240052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ديفيد مارك مكرم شاكر قرياقص</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Mark Makram Shaker</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220239</x:t>
   </x:si>
   <x:si>
@@ -123,15 +114,6 @@
     <x:t>SARA</x:t>
   </x:si>
   <x:si>
-    <x:t>1240070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Alaa Hussein Elshafey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240229</x:t>
   </x:si>
   <x:si>
@@ -265,24 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أحمد محمود سامى بشر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariam ahmed mahmoud samy bishr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240400</x:t>
@@ -407,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -958,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.8818637384</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4551544792</x:v>
+        <x:v>45907.7876664352</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.7041830671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7876664352</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1583,134 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6673467245</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.6793717245</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45909.5130859954</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عادل ابراهيم حسين السعيد عبد الله شعيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adel Ebrahim Hussein Shoaib</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240330</x:t>
   </x:si>
   <x:si>
@@ -193,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Amr sameh labib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم اسامة محمود عبدالقادر يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Osama Mahmoud Abd El Kader Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>2250003</x:t>
@@ -371,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1082,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.7876664352</x:v>
+        <x:v>45907.7041830671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1483,70 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.6673467245</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed mohamed hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فؤاد محمد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed mohamed fouad saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1240040</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -663,7 +672,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.730625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -808,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6770612269</x:v>
+        <x:v>45922.6007690625</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.6770612269</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.7041830671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>ahmed mohamed fouad saleh</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230173</x:t>
   </x:si>
   <x:si>
@@ -132,15 +123,6 @@
     <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230203</x:t>
   </x:si>
   <x:si>
@@ -177,15 +159,6 @@
     <x:t>Omar Mohamed Abdel Naby Darwish</x:t>
   </x:si>
   <x:si>
-    <x:t>1220098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد عمر الصاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Omar Elsawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230223</x:t>
   </x:si>
   <x:si>
@@ -222,22 +195,13 @@
     <x:t>Mohammed maged nabil abd el salam hassanin</x:t>
   </x:si>
   <x:si>
-    <x:t>4230174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد منير عبدالحميد كمال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Monir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
+    <x:t>1220203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي حسام الدين حفناوي مصطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hossameldin Hefnawi</x:t>
   </x:si>
   <x:si>
     <x:t>1240400</x:t>
@@ -362,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -670,8 +634,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.990625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.730625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.230625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.760625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -849,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6770612269</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45927.5037236921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1378,134 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4200115394</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.4167710995</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.6673467245</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Hossameldin Hefnawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عمرو محمد عدلي عبدالحليم رسلان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Amr Mohamed Adly Abdelhaleem Raslan</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -634,8 +625,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.230625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.760625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.780625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.290625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>jana mohamed salama abdelaty essayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه عصام كامل على عقل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba essam kamel</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220239</x:t>
   </x:si>
   <x:si>
@@ -103,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Zeinab Moawad mohamed anwar ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سارة احمد رفعت محفوظ محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARA</x:t>
   </x:si>
   <x:si>
     <x:t>1240229</x:t>
@@ -317,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -836,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.6652193634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652193634</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45927.5037236921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1237,70 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45907.4200115394</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45927.5037236921</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1230173</x:t>

--- a/downloaded_files/CVES125_Lecture-35409.xlsx
+++ b/downloaded_files/CVES125_Lecture-35409.xlsx
@@ -1225,11 +1225,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
